--- a/doc/matice app.xlsx
+++ b/doc/matice app.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="38">
   <si>
     <t>Jan Holouš</t>
   </si>
@@ -87,13 +87,64 @@
   </si>
   <si>
     <t>IKSS</t>
+  </si>
+  <si>
+    <t>stará tabulka</t>
+  </si>
+  <si>
+    <t>nová tabulka</t>
+  </si>
+  <si>
+    <t>mchdMPx</t>
+  </si>
+  <si>
+    <t>OZ</t>
+  </si>
+  <si>
+    <t>vidí</t>
+  </si>
+  <si>
+    <t>jen sebe</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>vše</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>pohled 1 single OZ</t>
+  </si>
+  <si>
+    <t>(x)</t>
+  </si>
+  <si>
+    <t>filtruje (jen pro SV)</t>
+  </si>
+  <si>
+    <t>pohled 2 TT</t>
+  </si>
+  <si>
+    <t>pohled 3 MP</t>
+  </si>
+  <si>
+    <t>pohled 4 vše</t>
+  </si>
+  <si>
+    <t>Kvůli Jan Sladký musí být možnost kombinace pohledu 1 s pohledem 2, pohledu 1 s pohledem 3 a pohledu 1 s pohledem 4</t>
+  </si>
+  <si>
+    <t>SV je absolutní oprávnění na "vidí", stačí jeden účet s přístupem více lidí (není třeba řešit, kdo to byl).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -101,16 +152,36 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -118,12 +189,254 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -404,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F7"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -415,147 +728,392 @@
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" s="14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" s="14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" s="14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" s="14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" s="14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" s="14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" s="14" t="s">
         <v>20</v>
       </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="11" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D14:D20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>